--- a/MATERIALPRAKERIN-main/LATIHAN EXCEL JIHAN.xlsx
+++ b/MATERIALPRAKERIN-main/LATIHAN EXCEL JIHAN.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ALOKASI waktu" sheetId="1" r:id="rId1"/>
     <sheet name="daftar harga" sheetId="2" r:id="rId2"/>
+    <sheet name="kegiatan1" sheetId="3" r:id="rId3"/>
+    <sheet name="kegiatan2" sheetId="4" r:id="rId4"/>
+    <sheet name="kegiatan3" sheetId="5" r:id="rId5"/>
+    <sheet name="kegiatan4" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>KD</t>
   </si>
@@ -148,6 +155,87 @@
   </si>
   <si>
     <t>Honor</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Baju Siswa</t>
+  </si>
+  <si>
+    <t>Putih Abu</t>
+  </si>
+  <si>
+    <t>Batik</t>
+  </si>
+  <si>
+    <t>Praktek</t>
+  </si>
+  <si>
+    <t>Pramuka</t>
+  </si>
+  <si>
+    <t>Olahraga</t>
+  </si>
+  <si>
+    <t>Baju Guru</t>
+  </si>
+  <si>
+    <t>PDH</t>
+  </si>
+  <si>
+    <t>Putih Hitam</t>
+  </si>
+  <si>
+    <t>Adat</t>
+  </si>
+  <si>
+    <t>Bebas</t>
+  </si>
+  <si>
+    <t>Kegiatan 1</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Total Harga</t>
+  </si>
+  <si>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t>Makan Siang</t>
+  </si>
+  <si>
+    <t>Kotak</t>
+  </si>
+  <si>
+    <t>galon</t>
+  </si>
+  <si>
+    <t>Buah</t>
+  </si>
+  <si>
+    <t>Tisue</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Kegiatan 2</t>
+  </si>
+  <si>
+    <t>Kegiatan 4</t>
+  </si>
+  <si>
+    <t>Kegiatan 3</t>
   </si>
 </sst>
 </file>
@@ -229,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,16 +380,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -305,12 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,12 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +417,30 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,6 +460,172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RPBMK FISTAN FISTUM"/>
+      <sheetName val="ALOKASI waktu"/>
+      <sheetName val="RAB SDC"/>
+      <sheetName val="daftar harga"/>
+      <sheetName val="kegiatan1"/>
+      <sheetName val="kegiatan 2"/>
+      <sheetName val="kegiatan 3"/>
+      <sheetName val="kegiatan 4"/>
+      <sheetName val="penentuan baju"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Snack Pagi</v>
+          </cell>
+          <cell r="C4">
+            <v>5000</v>
+          </cell>
+          <cell r="D4">
+            <v>6000</v>
+          </cell>
+          <cell r="E4">
+            <v>7000</v>
+          </cell>
+          <cell r="F4">
+            <v>8000</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Snack Sore</v>
+          </cell>
+          <cell r="C5">
+            <v>5000</v>
+          </cell>
+          <cell r="D5">
+            <v>6000</v>
+          </cell>
+          <cell r="E5">
+            <v>7000</v>
+          </cell>
+          <cell r="F5">
+            <v>8000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Makan Siang</v>
+          </cell>
+          <cell r="C6">
+            <v>13000</v>
+          </cell>
+          <cell r="D6">
+            <v>14000</v>
+          </cell>
+          <cell r="E6">
+            <v>15000</v>
+          </cell>
+          <cell r="F6">
+            <v>16000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Aqua gelas</v>
+          </cell>
+          <cell r="C7">
+            <v>15000</v>
+          </cell>
+          <cell r="D7">
+            <v>16000</v>
+          </cell>
+          <cell r="E7">
+            <v>17000</v>
+          </cell>
+          <cell r="F7">
+            <v>18000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>galon</v>
+          </cell>
+          <cell r="C8">
+            <v>5000</v>
+          </cell>
+          <cell r="D8">
+            <v>6000</v>
+          </cell>
+          <cell r="E8">
+            <v>7000</v>
+          </cell>
+          <cell r="F8">
+            <v>8000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Tisue</v>
+          </cell>
+          <cell r="C9">
+            <v>10000</v>
+          </cell>
+          <cell r="D9">
+            <v>11000</v>
+          </cell>
+          <cell r="E9">
+            <v>12000</v>
+          </cell>
+          <cell r="F9">
+            <v>13000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Topi</v>
+          </cell>
+          <cell r="C10">
+            <v>40000</v>
+          </cell>
+          <cell r="D10">
+            <v>41000</v>
+          </cell>
+          <cell r="E10">
+            <v>42000</v>
+          </cell>
+          <cell r="F10">
+            <v>43000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>ATK</v>
+          </cell>
+          <cell r="C11">
+            <v>200000</v>
+          </cell>
+          <cell r="D11">
+            <v>201000</v>
+          </cell>
+          <cell r="E11">
+            <v>202000</v>
+          </cell>
+          <cell r="F11">
+            <v>203000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,968 +906,968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
     </row>
     <row r="3" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
+      <c r="A4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>6</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
         <v>7</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="5">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="5">
         <v>9</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="5">
         <v>10</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="5">
         <v>11</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="5">
         <v>12</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
         <v>13</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="5">
         <v>14</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="5">
         <v>15</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="5">
         <v>16</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="5">
         <v>17</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9">
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
         <v>18</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="5">
         <v>19</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="5">
         <v>20</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="5">
         <v>21</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="5">
         <v>22</v>
       </c>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9">
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5">
         <v>23</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="5">
         <v>24</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AG4" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="5">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>21</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>22</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>23</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>24</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>25</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>26</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <v>27</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>28</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="5">
         <v>29</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="5">
         <v>30</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="5">
         <v>1</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="5">
         <v>2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="6">
         <v>3</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="5">
         <v>4</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="5">
         <v>5</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="5">
         <v>6</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="5">
         <v>7</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="5">
         <v>8</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="6">
         <v>9</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="6">
         <v>10</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="6">
         <v>11</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="5">
         <v>12</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="5">
         <v>13</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="5">
         <v>14</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="5">
         <v>15</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="5">
         <v>16</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="6">
         <v>17</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="5">
         <v>18</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="5">
         <v>19</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AD6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>7</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="5">
         <v>9</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="5">
         <v>10</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="5">
         <v>11</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="5">
         <v>12</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="5">
         <v>13</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="6">
         <v>14</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="5">
         <v>15</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="5">
         <v>16</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="5">
         <v>17</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="5">
         <v>18</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="5">
         <v>19</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="6">
         <v>20</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="6">
         <v>21</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="6">
         <v>22</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="5">
         <v>23</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="5">
         <v>24</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="5">
         <v>25</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="5">
         <v>26</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="5">
         <v>27</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="6">
         <v>28</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AE7" s="5">
         <v>29</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="5">
         <v>30</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
     </row>
     <row r="9" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>20</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
     </row>
     <row r="10" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>25</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>25</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
       <c r="AI11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
     </row>
     <row r="13" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
     </row>
     <row r="17" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
     </row>
     <row r="18" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
     </row>
     <row r="19" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
     </row>
     <row r="20" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>201</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1618,271 +1884,1272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F13"/>
+  <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>5000</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <f>C4+1000</f>
         <v>6000</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <f>D4+1000</f>
         <v>7000</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <f>E4+1000</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="12">
         <v>5000</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <f t="shared" ref="D5:E13" si="0">C5+1000</f>
         <v>6000</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <f t="shared" ref="F5" si="1">E5+1000</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>13000</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <f t="shared" ref="F6" si="2">E6+1000</f>
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>15000</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="15">
         <f t="shared" ref="F7" si="3">E7+1000</f>
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>5000</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <f t="shared" ref="F8" si="4">E8+1000</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>10000</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="15">
         <f t="shared" ref="F9" si="5">E9+1000</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>40000</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>41000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>42000</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <f t="shared" ref="F10" si="6">E10+1000</f>
         <v>43000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>200000</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>201000</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>202000</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <f t="shared" ref="F11" si="7">E11+1000</f>
         <v>203000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>100000</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>101000</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="15">
         <f t="shared" ref="F12" si="8">E12+1000</f>
         <v>103000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="13">
         <v>500000</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>501000</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>502000</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <f t="shared" ref="F13" si="9">E13+1000</f>
         <v>503000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15">
+        <f>VLOOKUP(B5,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F12" si="0">E5*C5</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15">
+        <f>VLOOKUP(B6,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="15">
+        <f>VLOOKUP(B7,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="15">
+        <f>VLOOKUP(B8,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>16000</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15">
+        <f>VLOOKUP(B9,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="15">
+        <f>VLOOKUP(B10,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>11000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="15">
+        <f>VLOOKUP(B11,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>41000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>1025000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15">
+        <f>VLOOKUP(B12,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>16000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15">
+        <f>VLOOKUP(B5,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F12" si="0">E5*C5</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15">
+        <f>VLOOKUP(B6,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15">
+        <f>VLOOKUP(B7,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>15000</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="15">
+        <f>VLOOKUP(B8,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15">
+        <f>VLOOKUP(B9,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15">
+        <f>VLOOKUP(B10,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>15000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="15">
+        <f>VLOOKUP(B11,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>200000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15">
+        <f>VLOOKUP(B12,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15">
+        <f>VLOOKUP(B5,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F12" si="0">E5*C5</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15">
+        <f>VLOOKUP(B6,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="15">
+        <f>VLOOKUP(B7,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="15">
+        <f>VLOOKUP(B8,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>16000</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15">
+        <f>VLOOKUP(B9,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>6000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="15">
+        <f>VLOOKUP(B10,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>11000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="15">
+        <f>VLOOKUP(B11,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>41000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>1025000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15">
+        <f>VLOOKUP(B12,'[1]daftar harga'!$B$4:$F$11,3)</f>
+        <v>16000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15">
+        <f>VLOOKUP(B5,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:F12" si="0">E5*C5</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15">
+        <f>VLOOKUP(B6,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15">
+        <f>VLOOKUP(B7,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>15000</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="15">
+        <f>VLOOKUP(B8,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="15">
+        <f>VLOOKUP(B9,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15">
+        <f>VLOOKUP(B10,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>15000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>7</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="15">
+        <f>VLOOKUP(B11,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>200000</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15">
+        <f>VLOOKUP(B12,'[1]daftar harga'!$B$4:$F$11,2)</f>
+        <v>5000</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>